--- a/Assignment 1 Model Results Compilation.xlsx
+++ b/Assignment 1 Model Results Compilation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BigRube\AppData\Local\Programs\prompt-eng-0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CF26B2-1408-49B3-9DF6-09E764426310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D6340-701A-4EAE-B46D-09307F25C22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1190" windowWidth="18480" windowHeight="8590" xr2:uid="{52A06546-9A6C-4D15-A269-2A917302E4A3}"/>
+    <workbookView xWindow="40" yWindow="510" windowWidth="19160" windowHeight="9270" xr2:uid="{52A06546-9A6C-4D15-A269-2A917302E4A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prompt Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
   <si>
     <t>target="ollama",</t>
   </si>
@@ -200,6 +201,36 @@
   </si>
   <si>
     <t>time: 27.612s</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>Time(s)</t>
+  </si>
+  <si>
+    <t>Few Shots</t>
+  </si>
+  <si>
+    <t>CoT</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>llama3.2</t>
+  </si>
+  <si>
+    <t>qwen</t>
+  </si>
+  <si>
+    <t>phi3.5</t>
+  </si>
+  <si>
+    <t>smollm</t>
   </si>
 </sst>
 </file>
@@ -263,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -285,6 +316,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,6 +334,1968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time vs Model for Each Prompt Structure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Chart!$A$3:$B$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>llama3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>qwen</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>phi3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>smollm</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>llama3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>qwen</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>phi3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>smollm</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>llama3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>qwen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>phi3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>smollm</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>llama3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>qwen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>phi3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>smollm</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Zero-Shot</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Few Shots</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CoT</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Meta</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>27.611999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.117000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.823</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-978D-49A1-B0DA-97E29D1B7C95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="780670872"/>
+        <c:axId val="780683472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="780670872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="780683472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="780683472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="780670872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time vs Model for Each Prompt Structure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Chart!$A$3:$B$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>llama3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>qwen</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>phi3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>smollm</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>llama3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>qwen</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>phi3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>smollm</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>llama3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>qwen</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>phi3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>smollm</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>llama3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>qwen</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>phi3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>smollm</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Zero-Shot</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Few Shots</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CoT</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Meta</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>27.611999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.527999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.117000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.823</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C55A-4F3D-ABF9-49F16F51D235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="780670872"/>
+        <c:axId val="780683472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="780670872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="780683472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="780683472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="780670872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1136650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E21B35-0F2E-4C74-93F8-5938036EB9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82556</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040A5B9D-3AFD-13CE-DF83-C9561BAF7FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD48C887-CB9C-46BE-BE2C-A2EF89702FB6}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,5 +3112,203 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F9C377-4D55-43DA-B554-A91B1967FF73}">
+  <dimension ref="A2:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>27.611999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>46.527999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>31.117000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>6.4589999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>23.603000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>28.442</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>47.341999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>41.823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>8.2889999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>29.067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>45.173999999999999</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>50.152000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>4.891</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A3:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>